--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Organisation\2019-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/MPSI/ipt_mpsi_lamartin/Informatique_MPSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF7D4C0-3517-4A13-971A-A291E93FB945}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{5F28BC8E-6F50-4038-867D-3BDC714DE76B}"/>
+    <workbookView xWindow="6980" yWindow="460" windowWidth="14380" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,23 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>Nom et prénom</t>
   </si>
   <si>
-    <t>Sexe</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
     <t>ABID Hamza</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>AHAMADA Abdoul- Hakim</t>
   </si>
   <si>
@@ -57,12 +53,6 @@
     <t>BARON Tanya</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Espagnol</t>
-  </si>
-  <si>
     <t>BELGUIDOUM Amin</t>
   </si>
   <si>
@@ -138,9 +128,6 @@
     <t>KHATIB Rabab</t>
   </si>
   <si>
-    <t>Italien</t>
-  </si>
-  <si>
     <t>LE CORRE Bastien</t>
   </si>
   <si>
@@ -193,12 +180,30 @@
   </si>
   <si>
     <t>ZAABANI Sofiane</t>
+  </si>
+  <si>
+    <t>Groupe TP</t>
+  </si>
+  <si>
+    <t>TP01</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>TP02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,503 +579,515 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C629D8B-742C-4F10-BDEC-6C8B2302C0F0}">
-  <dimension ref="A1:C48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="B37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="B39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="B41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="B43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="B45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="B47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -583,7 +583,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,9 @@
       <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -622,7 +624,9 @@
       <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -632,7 +636,9 @@
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -654,7 +660,9 @@
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -676,7 +684,9 @@
       <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -698,7 +708,9 @@
       <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -708,7 +720,9 @@
       <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -730,7 +744,9 @@
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -740,7 +756,9 @@
       <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -750,7 +768,9 @@
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -772,7 +792,9 @@
       <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="460" windowWidth="14380" windowHeight="14660"/>
+    <workbookView xWindow="6980" yWindow="460" windowWidth="14380" windowHeight="14200"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -804,7 +804,9 @@
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -814,7 +816,9 @@
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -824,7 +828,9 @@
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -834,8 +840,12 @@
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -844,8 +854,12 @@
       <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -854,7 +868,9 @@
       <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -864,7 +880,9 @@
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -874,7 +892,9 @@
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -884,7 +904,9 @@
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -894,7 +916,9 @@
       <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -904,7 +928,9 @@
       <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -914,7 +940,9 @@
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -924,7 +952,9 @@
       <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -934,7 +964,9 @@
       <c r="B31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -944,7 +976,9 @@
       <c r="B32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -954,7 +988,9 @@
       <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1046,7 +1082,9 @@
       <c r="B42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1096,7 +1134,9 @@
       <c r="B47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -606,8 +606,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
@@ -615,11 +615,11 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>50</v>
@@ -627,11 +627,13 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
@@ -639,11 +641,13 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>50</v>
@@ -651,11 +655,13 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>50</v>
@@ -663,11 +669,13 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>50</v>
@@ -675,11 +683,13 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -687,11 +697,13 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>50</v>
@@ -699,11 +711,13 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
@@ -711,11 +725,13 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>50</v>
@@ -723,11 +739,13 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>50</v>
@@ -735,11 +753,13 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
@@ -750,8 +770,8 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>50</v>
@@ -759,47 +779,45 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
+      <c r="A15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
+      <c r="A17" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>51</v>
@@ -811,7 +829,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>51</v>
@@ -823,7 +841,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -835,7 +853,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>51</v>
@@ -843,13 +861,11 @@
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>51</v>
@@ -857,13 +873,11 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>51</v>
@@ -875,7 +889,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
@@ -886,8 +900,8 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
+      <c r="A25" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>51</v>
@@ -895,11 +909,11 @@
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>51</v>
@@ -907,11 +921,11 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
+      <c r="A27" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>51</v>
@@ -919,11 +933,11 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>51</v>
@@ -931,47 +945,43 @@
       <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
+      <c r="A29" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2"/>
+      <c r="A30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="2">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>51</v>
@@ -983,10 +993,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -995,101 +1005,111 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
+      <c r="A36" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3"/>
+      <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2"/>
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>52</v>
@@ -1099,7 +1119,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>52</v>
@@ -1108,50 +1128,53 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2"/>
+      <c r="B48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D48">
+    <sortCondition ref="B2:B48"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="460" windowWidth="14380" windowHeight="14200"/>
+    <workbookView xWindow="5420" yWindow="460" windowWidth="20180" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>TP02</t>
+  </si>
+  <si>
+    <t>TP03</t>
   </si>
 </sst>
 </file>
@@ -580,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -591,7 +594,7 @@
     <col min="1" max="1" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +607,11 @@
       <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -615,9 +621,12 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -630,8 +639,9 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -644,8 +654,9 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -658,8 +669,9 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -672,8 +684,9 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -686,8 +699,9 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -700,8 +714,9 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -714,8 +729,9 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -728,8 +744,9 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -742,8 +759,9 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -756,8 +774,9 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -767,9 +786,12 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -779,9 +801,12 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -789,9 +814,14 @@
         <v>50</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -802,8 +832,9 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -814,8 +845,9 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -825,9 +857,12 @@
       <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -837,9 +872,12 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -849,9 +887,12 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -861,9 +902,12 @@
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -873,9 +917,12 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -885,9 +932,12 @@
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -897,9 +947,12 @@
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -909,9 +962,12 @@
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -921,9 +977,12 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -933,9 +992,12 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -945,9 +1007,12 @@
       <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -955,9 +1020,12 @@
         <v>51</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -965,9 +1033,12 @@
         <v>51</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -977,9 +1048,12 @@
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -989,9 +1063,12 @@
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -1002,8 +1079,9 @@
         <v>1</v>
       </c>
       <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1014,8 +1092,9 @@
         <v>1</v>
       </c>
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -1026,8 +1105,9 @@
         <v>1</v>
       </c>
       <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -1038,8 +1118,9 @@
         <v>1</v>
       </c>
       <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1050,8 +1131,9 @@
         <v>1</v>
       </c>
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1062,8 +1144,9 @@
         <v>1</v>
       </c>
       <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
@@ -1074,8 +1157,9 @@
         <v>1</v>
       </c>
       <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -1086,8 +1170,9 @@
         <v>1</v>
       </c>
       <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -1096,8 +1181,9 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -1106,8 +1192,9 @@
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>38</v>
       </c>
@@ -1116,8 +1203,9 @@
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
@@ -1126,8 +1214,9 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1138,8 +1227,9 @@
         <v>1</v>
       </c>
       <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -1148,8 +1238,9 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
@@ -1158,8 +1249,9 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1170,6 +1262,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:D48">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="460" windowWidth="20180" windowHeight="14620"/>
+    <workbookView xWindow="4200" yWindow="460" windowWidth="20180" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>TP03</t>
+  </si>
+  <si>
+    <t>TP04</t>
   </si>
 </sst>
 </file>
@@ -583,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -594,7 +597,7 @@
     <col min="1" max="1" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,8 +613,11 @@
       <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -625,8 +631,9 @@
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -639,9 +646,12 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -654,9 +664,12 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -669,9 +682,14 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -684,9 +702,14 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -699,9 +722,14 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -714,9 +742,14 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -729,9 +762,14 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -744,9 +782,14 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -759,9 +802,14 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -774,9 +822,14 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -789,9 +842,14 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -804,9 +862,12 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -820,8 +881,9 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -832,9 +894,14 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -845,9 +912,14 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -860,9 +932,12 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -875,9 +950,12 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -890,9 +968,12 @@
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -905,9 +986,12 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -920,9 +1004,12 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -935,9 +1022,12 @@
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -950,9 +1040,12 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -965,9 +1058,12 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -980,9 +1076,12 @@
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -995,9 +1094,12 @@
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1010,9 +1112,12 @@
       <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1023,9 +1128,12 @@
       <c r="D29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1036,9 +1144,12 @@
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1051,9 +1162,12 @@
       <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -1067,8 +1181,9 @@
         <v>1</v>
       </c>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -1080,8 +1195,9 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1209,9 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1223,9 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -1119,8 +1237,9 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1132,8 +1251,9 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1145,8 +1265,9 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
@@ -1158,8 +1279,9 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -1171,8 +1293,9 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -1182,8 +1305,9 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -1193,8 +1317,9 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>38</v>
       </c>
@@ -1204,8 +1329,9 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
@@ -1215,8 +1341,9 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1228,8 +1355,9 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -1239,8 +1367,9 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
@@ -1250,8 +1379,9 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1263,6 +1393,7 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:D48">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="460" windowWidth="20180" windowHeight="14560"/>
+    <workbookView xWindow="4180" yWindow="820" windowWidth="20180" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1180,9 @@
       <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -589,7 +589,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -881,7 +881,9 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="820" windowWidth="20180" windowHeight="14340"/>
+    <workbookView xWindow="4180" yWindow="740" windowWidth="20180" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>TP04</t>
+  </si>
+  <si>
+    <t>TP05</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,15 +266,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -597,7 +613,7 @@
     <col min="1" max="1" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,8 +632,11 @@
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -631,9 +650,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -649,9 +673,12 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -667,9 +694,12 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -688,8 +718,9 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -708,8 +739,9 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -728,8 +760,9 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -748,8 +781,9 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -768,8 +802,9 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -788,8 +823,9 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -808,8 +844,9 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -828,8 +865,9 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -848,8 +886,9 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -865,9 +904,15 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -884,8 +929,12 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -902,8 +951,9 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -920,8 +970,9 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -937,9 +988,12 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -955,9 +1009,12 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -974,8 +1031,9 @@
         <v>1</v>
       </c>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -991,9 +1049,12 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1009,9 +1070,12 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1027,9 +1091,12 @@
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1045,9 +1112,12 @@
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1063,9 +1133,12 @@
       <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -1082,8 +1155,9 @@
         <v>1</v>
       </c>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1099,9 +1173,12 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1117,9 +1194,12 @@
       <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1133,9 +1213,12 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1150,8 +1233,9 @@
         <v>1</v>
       </c>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1167,9 +1251,12 @@
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -1186,8 +1273,9 @@
         <v>1</v>
       </c>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -1200,8 +1288,9 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1214,8 +1303,9 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -1228,8 +1318,9 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -1242,8 +1333,9 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1256,8 +1348,9 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1363,9 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
@@ -1284,8 +1378,9 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -1298,8 +1393,9 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -1310,8 +1406,9 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -1322,8 +1419,9 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>38</v>
       </c>
@@ -1334,8 +1432,9 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
@@ -1346,8 +1445,9 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1360,8 +1460,9 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -1372,8 +1473,9 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
@@ -1384,8 +1486,9 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1398,6 +1501,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:D48">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -676,7 +676,9 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -697,7 +699,9 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -718,7 +722,9 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -739,7 +745,9 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -760,7 +768,9 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -781,7 +791,9 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -802,7 +814,9 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -823,7 +837,9 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -844,7 +860,9 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -865,7 +883,9 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -886,7 +906,9 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -951,7 +973,9 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -970,7 +994,9 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="740" windowWidth="20180" windowHeight="14340"/>
+    <workbookView xWindow="3940" yWindow="460" windowWidth="20180" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>TP05</t>
+  </si>
+  <si>
+    <t>TP06</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,28 +272,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,12 +598,13 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -635,6 +629,9 @@
       <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -656,6 +653,9 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -679,6 +679,7 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -702,6 +703,7 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -725,6 +727,7 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -748,6 +751,7 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -771,6 +775,7 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -794,6 +799,7 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -817,6 +823,7 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -840,6 +847,7 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -863,6 +871,7 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -886,6 +895,7 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -909,6 +919,7 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -932,7 +943,9 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -954,7 +967,9 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -976,8 +991,9 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -997,8 +1013,9 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1017,9 +1034,12 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1038,9 +1058,12 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1057,9 +1080,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1078,9 +1104,12 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1099,9 +1128,12 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1120,9 +1152,12 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1141,9 +1176,12 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1162,9 +1200,12 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -1181,9 +1222,12 @@
         <v>1</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1202,9 +1246,12 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1223,9 +1270,12 @@
       <c r="F28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1242,9 +1292,12 @@
       <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1259,9 +1312,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1280,9 +1336,12 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -1299,9 +1358,12 @@
         <v>1</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -1315,8 +1377,9 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1330,8 +1393,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -1345,8 +1409,9 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -1360,8 +1425,9 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1375,8 +1441,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1457,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
@@ -1405,8 +1473,9 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -1420,8 +1489,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -1433,8 +1503,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -1446,8 +1517,9 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>38</v>
       </c>
@@ -1459,8 +1531,9 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
@@ -1472,8 +1545,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1487,8 +1561,9 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -1500,8 +1575,9 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
@@ -1513,8 +1589,9 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1528,6 +1605,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:D48">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="460" windowWidth="20180" windowHeight="14340"/>
+    <workbookView xWindow="12840" yWindow="0" windowWidth="12760" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -679,7 +679,9 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -703,7 +705,9 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -727,7 +731,9 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -751,7 +757,9 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -775,7 +783,9 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -799,7 +809,9 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -823,7 +835,9 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -847,7 +861,9 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -871,7 +887,9 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -895,7 +913,9 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -919,7 +939,9 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -991,7 +1013,9 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -1013,7 +1037,9 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="0" windowWidth="12760" windowHeight="16000"/>
+    <workbookView xWindow="12840" yWindow="460" windowWidth="12760" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>TP06</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -597,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1060,9 @@
       <c r="G18" s="2">
         <v>1</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1087,7 +1086,9 @@
       <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -1133,7 +1134,9 @@
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1157,7 +1160,9 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1181,7 +1186,9 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1205,7 +1212,9 @@
       <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -1229,7 +1238,9 @@
       <c r="G25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1251,7 +1262,9 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -1275,7 +1288,9 @@
       <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -1299,7 +1314,9 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -1321,7 +1338,9 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -1341,7 +1360,9 @@
       <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
@@ -1365,7 +1386,9 @@
       <c r="G31" s="3">
         <v>1</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -1384,8 +1407,8 @@
         <v>1</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>58</v>
+      <c r="G32" s="2">
+        <v>1</v>
       </c>
       <c r="H32" s="2"/>
     </row>

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1110,9 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -1410,7 +1412,9 @@
       <c r="G32" s="2">
         <v>1</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>TP06</t>
+  </si>
+  <si>
+    <t>TP08</t>
   </si>
 </sst>
 </file>
@@ -592,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -604,7 +607,7 @@
     <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,8 +632,11 @@
       <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -653,8 +659,9 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -679,8 +686,9 @@
       <c r="H3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -705,8 +713,9 @@
       <c r="H4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -731,8 +740,9 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -757,8 +767,9 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -783,8 +794,11 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -809,8 +823,11 @@
       <c r="H8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -835,8 +852,9 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -861,8 +879,9 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -887,8 +906,11 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -913,8 +935,9 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -939,8 +962,11 @@
       <c r="H13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -965,8 +991,9 @@
       <c r="H14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -989,8 +1016,9 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -1013,8 +1041,11 @@
       <c r="H16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1037,8 +1068,9 @@
       <c r="H17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1063,8 +1095,9 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1089,8 +1122,9 @@
       <c r="H19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1113,8 +1147,9 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1139,8 +1174,9 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1201,9 @@
       <c r="H22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1191,8 +1228,9 @@
       <c r="H23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1217,8 +1255,9 @@
       <c r="H24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1243,8 +1282,9 @@
       <c r="H25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -1267,8 +1307,9 @@
       <c r="H26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1293,8 +1334,9 @@
       <c r="H27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1319,8 +1361,9 @@
       <c r="H28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1343,8 +1386,9 @@
       <c r="H29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1365,8 +1409,9 @@
       <c r="H30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1391,8 +1436,9 @@
       <c r="H31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -1415,8 +1461,11 @@
       <c r="H32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -1431,8 +1480,9 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1447,8 +1497,9 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -1463,8 +1514,9 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -1479,8 +1531,9 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1548,9 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1565,9 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
@@ -1527,8 +1582,9 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -1543,8 +1599,9 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -1557,8 +1614,9 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -1571,8 +1629,9 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>38</v>
       </c>
@@ -1585,8 +1644,9 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
@@ -1599,8 +1659,9 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1615,8 +1676,9 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -1629,8 +1691,9 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
@@ -1643,8 +1706,9 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1659,6 +1723,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:D48">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="460" windowWidth="12760" windowHeight="14420"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="12760" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -659,7 +659,9 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -686,7 +688,9 @@
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -713,7 +717,9 @@
       <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -740,7 +746,9 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -767,7 +775,9 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -852,7 +862,9 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -879,7 +891,9 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -935,7 +949,9 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -1016,7 +1032,9 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -1068,7 +1086,9 @@
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1095,7 +1115,9 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1122,7 +1144,9 @@
       <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -1174,7 +1198,9 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1201,7 +1227,9 @@
       <c r="H22" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1228,7 +1256,9 @@
       <c r="H23" s="3">
         <v>1</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1255,7 +1285,9 @@
       <c r="H24" s="2">
         <v>1</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -1282,7 +1314,9 @@
       <c r="H25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1307,7 +1341,9 @@
       <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -1334,7 +1370,9 @@
       <c r="H27" s="2">
         <v>1</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -1361,7 +1399,9 @@
       <c r="H28" s="3">
         <v>1</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -1386,7 +1426,9 @@
       <c r="H29" s="2">
         <v>1</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -1409,7 +1451,9 @@
       <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
@@ -1436,7 +1480,9 @@
       <c r="H31" s="3">
         <v>1</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="12760" windowHeight="14420"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="18820" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -595,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -607,7 +607,7 @@
     <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +635,11 @@
       <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -662,8 +665,11 @@
       <c r="I2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -691,8 +697,11 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -720,8 +729,11 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -749,8 +761,11 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -778,8 +793,11 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -807,8 +825,11 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -836,8 +857,11 @@
       <c r="I8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -865,8 +889,11 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -894,8 +921,11 @@
       <c r="I10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -923,8 +953,11 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -952,8 +985,11 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -981,8 +1017,11 @@
       <c r="I13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1008,8 +1047,9 @@
         <v>1</v>
       </c>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1035,8 +1075,11 @@
       <c r="I15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -1062,8 +1105,11 @@
       <c r="I16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1089,8 +1135,11 @@
       <c r="I17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1118,8 +1167,9 @@
       <c r="I18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,8 +1197,9 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1172,8 +1223,9 @@
         <v>1</v>
       </c>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1201,8 +1253,9 @@
       <c r="I21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1230,8 +1283,9 @@
       <c r="I22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1259,8 +1313,9 @@
       <c r="I23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1288,8 +1343,9 @@
       <c r="I24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1317,8 +1373,9 @@
       <c r="I25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -1344,8 +1401,9 @@
       <c r="I26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1373,8 +1431,9 @@
       <c r="I27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1402,8 +1461,9 @@
       <c r="I28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1429,8 +1489,9 @@
       <c r="I29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1454,8 +1515,9 @@
       <c r="I30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1483,8 +1545,9 @@
       <c r="I31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
@@ -1510,8 +1573,9 @@
       <c r="I32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -1527,8 +1591,9 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1544,8 +1609,9 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -1561,8 +1627,9 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -1578,8 +1645,9 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1595,8 +1663,9 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1612,8 +1681,9 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
@@ -1629,8 +1699,9 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -1646,8 +1717,9 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -1661,8 +1733,9 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -1676,8 +1749,9 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>38</v>
       </c>
@@ -1691,8 +1765,9 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
@@ -1706,8 +1781,9 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1723,8 +1799,9 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -1738,8 +1815,9 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
@@ -1753,8 +1831,9 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1770,6 +1849,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:D48">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="18820" windowHeight="14420"/>
+    <workbookView xWindow="-34180" yWindow="880" windowWidth="25600" windowHeight="14700"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="S2" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="61">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -128,9 +129,6 @@
     <t>KHATIB Rabab</t>
   </si>
   <si>
-    <t>LE CORRE Bastien</t>
-  </si>
-  <si>
     <t>LURI VAÑO Jorge</t>
   </si>
   <si>
@@ -158,9 +156,6 @@
     <t>NOVEL CATIN Simon</t>
   </si>
   <si>
-    <t>PERRET Loïc</t>
-  </si>
-  <si>
     <t>PETIT Théo</t>
   </si>
   <si>
@@ -213,6 +208,18 @@
   </si>
   <si>
     <t>TP08</t>
+  </si>
+  <si>
+    <t>TP09</t>
+  </si>
+  <si>
+    <t>TP10</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>TP11</t>
   </si>
 </sst>
 </file>
@@ -595,15 +602,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
     <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -612,31 +619,1037 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J45">
+    <sortCondition ref="B2:B45"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -644,7 +1657,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -674,7 +1687,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -706,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -738,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -770,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -802,7 +1815,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -834,7 +1847,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -866,7 +1879,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -898,7 +1911,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -930,7 +1943,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -962,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -994,7 +2007,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1022,39 +2035,41 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -1084,7 +2099,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -1111,12 +2126,14 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
@@ -1140,187 +2157,197 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
+      <c r="A18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2"/>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
+      <c r="A19" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
+      <c r="A20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
+      <c r="A21" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
+      <c r="A22" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2"/>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
+      <c r="A23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3"/>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1343,244 +2370,232 @@
       <c r="I24" s="2">
         <v>1</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
+      <c r="A25" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2"/>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
+      <c r="A26" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3"/>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2"/>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
+      <c r="A28" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3"/>
+      <c r="A30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -1594,83 +2609,83 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>3</v>
+      <c r="A34" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>14</v>
+      <c r="A35" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>16</v>
+      <c r="A36" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>19</v>
+      <c r="A37" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -1684,131 +2699,129 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>24</v>
+      <c r="A39" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="A41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1817,40 +2830,6 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-    </row>
   </sheetData>
   <sortState ref="A2:D48">
     <sortCondition ref="B2:B48"/>

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34180" yWindow="880" windowWidth="25600" windowHeight="14700"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -724,7 +724,9 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -786,7 +788,9 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -902,7 +906,9 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -920,7 +926,9 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14700"/>
+    <workbookView xWindow="-28760" yWindow="1380" windowWidth="25600" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="62">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>TP11</t>
+  </si>
+  <si>
+    <t>DS5</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,7 +639,9 @@
       <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
@@ -659,146 +664,172 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
+      <c r="A7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
+      <c r="A9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>48</v>
@@ -806,22 +837,30 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -832,96 +871,120 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
+      <c r="A11" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
+      <c r="A13" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="3"/>
@@ -929,65 +992,69 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2"/>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -998,20 +1065,24 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1019,18 +1090,20 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
@@ -1038,41 +1111,43 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
+      <c r="A21" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1096,33 +1171,39 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
+      <c r="A23" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>49</v>
@@ -1130,51 +1211,47 @@
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2">
         <v>1</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3">
         <v>1</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>28</v>
+      <c r="A26" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>49</v>
@@ -1182,25 +1259,27 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>49</v>
@@ -1220,369 +1299,413 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>41</v>
+      <c r="A29" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>10</v>
+      <c r="A33" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>18</v>
+      <c r="A37" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>20</v>
+      <c r="A38" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>22</v>
+      <c r="A39" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -1602,13 +1725,15 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:J45">
-    <sortCondition ref="B2:B45"/>
+    <sortCondition ref="A2:A45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28760" yWindow="1380" windowWidth="25600" windowHeight="14500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -23,21 +23,12 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="63">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -223,6 +214,9 @@
   </si>
   <si>
     <t>DS5</t>
+  </si>
+  <si>
+    <t>TP12</t>
   </si>
 </sst>
 </file>
@@ -300,9 +294,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -608,7 +599,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -642,7 +633,9 @@
       <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -670,23 +663,33 @@
       <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
       <c r="H3" s="3">
         <v>1</v>
       </c>
@@ -695,22 +698,24 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -719,20 +724,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>1</v>
       </c>
@@ -746,90 +747,84 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>48</v>
@@ -837,30 +832,26 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -871,120 +862,116 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
+      <c r="A13" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3"/>
@@ -1003,22 +990,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
@@ -1027,16 +1014,20 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
@@ -1051,10 +1042,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1065,8 +1056,8 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
-        <v>1</v>
+      <c r="F18" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1079,10 +1070,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1090,11 +1081,13 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
       <c r="H19" s="3">
         <v>1</v>
       </c>
@@ -1103,7 +1096,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
@@ -1111,8 +1104,12 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
@@ -1126,28 +1123,28 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
+      <c r="A21" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1178,32 +1175,32 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
+      <c r="A23" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>49</v>
@@ -1211,8 +1208,12 @@
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
       <c r="F24" s="2">
         <v>1</v>
       </c>
@@ -1227,16 +1228,20 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
       <c r="F25" s="3">
         <v>1</v>
       </c>
@@ -1250,8 +1255,8 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>49</v>
@@ -1259,27 +1264,27 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>49</v>
@@ -1302,179 +1307,175 @@
       <c r="H27" s="3">
         <v>1</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
       <c r="H28" s="2">
         <v>1</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
+      <c r="A29" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="A30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
+      <c r="A32" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
+      <c r="A33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="3">
         <v>1</v>
       </c>
@@ -1483,24 +1484,22 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="2">
         <v>1</v>
       </c>
@@ -1508,173 +1507,179 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="B42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2">
@@ -1684,28 +1689,26 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -1733,7 +1736,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:J45">
-    <sortCondition ref="A2:A45"/>
+    <sortCondition ref="B2:B45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -599,7 +599,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,9 @@
       <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -767,7 +769,9 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -819,7 +823,9 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -985,7 +991,9 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="64">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>TP12</t>
+  </si>
+  <si>
+    <t>TP13</t>
   </si>
 </sst>
 </file>
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,7 +639,9 @@
       <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -670,72 +675,72 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="3">
         <v>1</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
@@ -745,92 +750,102 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3"/>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
+      <c r="A7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
+      <c r="A9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>48</v>
@@ -838,146 +853,170 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>39</v>
+      <c r="A13" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="3"/>
@@ -991,29 +1030,27 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2">
         <v>1</v>
       </c>
@@ -1022,20 +1059,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3">
         <v>1</v>
       </c>
@@ -1045,15 +1078,17 @@
       <c r="H17" s="3">
         <v>1</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1064,8 +1099,8 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>59</v>
+      <c r="F18" s="2">
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1073,15 +1108,19 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1089,22 +1128,22 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
@@ -1112,12 +1151,8 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2">
         <v>1</v>
       </c>
@@ -1127,32 +1162,36 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
+      <c r="A21" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1179,36 +1218,44 @@
       <c r="H22" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
+      <c r="A23" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>49</v>
@@ -1216,12 +1263,8 @@
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2">
         <v>1</v>
       </c>
@@ -1231,25 +1274,25 @@
       <c r="H24" s="2">
         <v>1</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3">
         <v>1</v>
       </c>
@@ -1259,12 +1302,16 @@
       <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>28</v>
+      <c r="A26" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>49</v>
@@ -1272,27 +1319,29 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>49</v>
@@ -1322,24 +1371,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2">
         <v>1</v>
       </c>
@@ -1349,374 +1396,424 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>41</v>
+      <c r="A29" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>10</v>
+      <c r="A33" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>18</v>
+      <c r="A37" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>20</v>
+      <c r="A38" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>22</v>
+      <c r="A39" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2">
         <v>1</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -1743,8 +1840,8 @@
       <c r="J45" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J45">
-    <sortCondition ref="B2:B45"/>
+  <sortState ref="A3:J45">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -809,7 +809,9 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -871,7 +873,9 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -979,7 +983,9 @@
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1030,8 +1036,12 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -1054,8 +1064,12 @@
       <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1081,7 +1095,9 @@
       <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1139,7 +1155,9 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -1190,8 +1208,12 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1393,7 +1415,9 @@
       <c r="I28" s="2">
         <v>1</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
@@ -1449,7 +1473,9 @@
       <c r="I30" s="2">
         <v>1</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -1535,7 +1561,9 @@
       <c r="I33" s="2">
         <v>1</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -1682,8 +1710,12 @@
       <c r="H39" s="2">
         <v>1</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -1704,8 +1736,12 @@
       <c r="H40" s="3">
         <v>1</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="65">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>TP13</t>
+  </si>
+  <si>
+    <t>DS7</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -279,15 +282,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -611,7 +626,7 @@
     <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,8 +657,11 @@
       <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -673,7 +691,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -697,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -755,7 +773,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -783,7 +801,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -813,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -845,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -877,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -905,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -929,7 +947,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -959,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -987,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1043,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>DS7</t>
+  </si>
+  <si>
+    <t>TP14</t>
   </si>
 </sst>
 </file>
@@ -614,9 +617,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -626,7 +629,7 @@
     <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,11 +660,14 @@
       <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -690,8 +696,9 @@
         <v>1</v>
       </c>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -714,8 +721,9 @@
       <c r="J3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -742,8 +750,9 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -772,8 +781,9 @@
         <v>1</v>
       </c>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -800,8 +810,9 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -830,8 +841,9 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -862,8 +874,9 @@
       <c r="J8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="J9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -922,8 +936,9 @@
       <c r="J10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -946,8 +961,9 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -976,8 +992,9 @@
       <c r="J12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1004,8 +1021,9 @@
       <c r="J13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1032,8 +1050,9 @@
       <c r="J14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1060,8 +1079,9 @@
       <c r="J15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1088,8 +1108,9 @@
       <c r="J16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1116,8 +1137,9 @@
       <c r="J17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1148,8 +1170,9 @@
       <c r="J18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1176,8 +1199,9 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1204,8 +1228,9 @@
       <c r="J20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1232,8 +1257,9 @@
       <c r="J21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1264,8 +1290,9 @@
       <c r="J22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1292,8 +1319,9 @@
       <c r="J23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1320,8 +1348,9 @@
       <c r="J24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1348,8 +1377,9 @@
       <c r="J25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1378,8 +1408,9 @@
         <v>1</v>
       </c>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1408,8 +1439,9 @@
         <v>1</v>
       </c>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1436,8 +1468,9 @@
       <c r="J28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1466,8 +1499,9 @@
         <v>1</v>
       </c>
       <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1494,8 +1528,9 @@
       <c r="J30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1524,8 +1559,9 @@
         <v>1</v>
       </c>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1556,8 +1592,9 @@
       <c r="J32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1582,8 +1619,9 @@
       <c r="J33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1608,8 +1646,9 @@
       <c r="J34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1638,8 +1677,9 @@
       <c r="J35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1664,8 +1704,9 @@
       <c r="J36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1686,8 +1727,9 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1708,8 +1750,9 @@
       <c r="J38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -1734,8 +1777,9 @@
       <c r="J39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1760,8 +1804,9 @@
       <c r="J40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -1788,8 +1833,9 @@
         <v>1</v>
       </c>
       <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1814,8 +1860,9 @@
       <c r="J42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -1840,8 +1887,9 @@
       <c r="J43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1868,8 +1916,9 @@
       <c r="J44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -1892,6 +1941,7 @@
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:J45">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="25600" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -696,7 +696,9 @@
         <v>1</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -781,7 +783,9 @@
         <v>1</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -907,7 +911,9 @@
       <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -992,7 +998,9 @@
       <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -1108,7 +1116,9 @@
       <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1137,7 +1147,9 @@
       <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1319,7 +1331,9 @@
       <c r="J23" s="3">
         <v>1</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1439,7 +1453,9 @@
         <v>1</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
@@ -1528,7 +1544,9 @@
       <c r="J30" s="2">
         <v>1</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -1592,7 +1610,9 @@
       <c r="J32" s="3">
         <v>1</v>
       </c>
-      <c r="K32" s="3"/>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
@@ -1677,7 +1697,9 @@
       <c r="J35" s="2">
         <v>1</v>
       </c>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
@@ -1727,7 +1749,9 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
@@ -1833,7 +1857,9 @@
         <v>1</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -1860,7 +1886,9 @@
       <c r="J42" s="3">
         <v>1</v>
       </c>
-      <c r="K42" s="3"/>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -1887,7 +1915,9 @@
       <c r="J43" s="2">
         <v>1</v>
       </c>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="25600" windowHeight="14220"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="25600" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,7 +752,9 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -845,7 +847,9 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -878,7 +882,9 @@
       <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -942,7 +948,9 @@
       <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -965,7 +973,9 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
@@ -1029,7 +1039,9 @@
       <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1058,7 +1070,9 @@
       <c r="J14" s="2">
         <v>1</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -1182,7 +1196,9 @@
       <c r="J18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1211,7 +1227,9 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -1240,7 +1258,9 @@
       <c r="J20" s="2">
         <v>1</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -1302,7 +1322,9 @@
       <c r="J22" s="2">
         <v>1</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1362,7 +1384,9 @@
       <c r="J24" s="2">
         <v>1</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -1391,7 +1415,9 @@
       <c r="J25" s="3">
         <v>1</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -1484,7 +1510,9 @@
       <c r="J28" s="2">
         <v>1</v>
       </c>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
@@ -1666,7 +1694,9 @@
       <c r="J34" s="3">
         <v>1</v>
       </c>
-      <c r="K34" s="3"/>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -1726,7 +1756,9 @@
       <c r="J36" s="3">
         <v>1</v>
       </c>
-      <c r="K36" s="3"/>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -1774,7 +1806,9 @@
       <c r="J38" s="2">
         <v>1</v>
       </c>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
@@ -1946,7 +1980,9 @@
       <c r="J44" s="3">
         <v>1</v>
       </c>
-      <c r="K44" s="3"/>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -1972,6 +2008,12 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <f>SUM(I2:I45)</f>
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A3:J45">

--- a/mpsi2_TP.xlsx
+++ b/mpsi2_TP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="25600" windowHeight="14220"/>
+    <workbookView xWindow="2380" yWindow="1560" windowWidth="19400" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
   <si>
     <t>Nom et prénom</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>TP14</t>
+  </si>
+  <si>
+    <t>DS9</t>
+  </si>
+  <si>
+    <t>Projet</t>
   </si>
 </sst>
 </file>
@@ -300,12 +306,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -629,7 +636,7 @@
     <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,8 +673,14 @@
       <c r="L1" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -699,8 +712,14 @@
       <c r="K2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="5">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -724,8 +743,14 @@
         <v>1</v>
       </c>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,8 +780,14 @@
       <c r="K4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -788,8 +819,11 @@
       <c r="K5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -817,8 +851,14 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -850,8 +890,14 @@
       <c r="K7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -885,8 +931,14 @@
       <c r="K8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -920,8 +972,14 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -951,8 +1009,14 @@
       <c r="K10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -978,8 +1042,14 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1011,8 +1081,14 @@
       <c r="K12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1042,8 +1118,14 @@
       <c r="K13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1073,8 +1155,14 @@
       <c r="K14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1102,8 +1190,14 @@
         <v>1</v>
       </c>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1133,8 +1227,14 @@
       <c r="K16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1164,8 +1264,14 @@
       <c r="K17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1199,8 +1305,14 @@
       <c r="K18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1230,8 +1342,14 @@
       <c r="K19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1261,8 +1379,14 @@
       <c r="K20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1290,8 +1414,14 @@
         <v>1</v>
       </c>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1325,8 +1455,14 @@
       <c r="K22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1356,8 +1492,14 @@
       <c r="K23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1387,8 +1529,14 @@
       <c r="K24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M24" s="5">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1418,8 +1566,14 @@
       <c r="K25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1449,8 +1603,14 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1482,8 +1642,11 @@
       <c r="K27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1513,8 +1676,14 @@
       <c r="K28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M28" s="5">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1544,8 +1713,14 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1575,8 +1750,14 @@
       <c r="K30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M30" s="5">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -1606,8 +1787,14 @@
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1641,8 +1828,14 @@
       <c r="K32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1668,8 +1861,14 @@
         <v>1</v>
       </c>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="5">
+        <v>1</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1697,8 +1896,14 @@
       <c r="K34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1730,8 +1935,14 @@
       <c r="K35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="5">
+        <v>1</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1759,8 +1970,14 @@
       <c r="K36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1784,8 +2001,14 @@
       <c r="K37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1809,8 +2032,14 @@
       <c r="K38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="5">
+        <v>1</v>
+      </c>
+      <c r="N38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -1836,8 +2065,14 @@
         <v>1</v>
       </c>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M39" s="5">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1863,8 +2098,11 @@
         <v>1</v>
       </c>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -1894,8 +2132,14 @@
       <c r="K41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M41" s="5">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1923,8 +2167,14 @@
       <c r="K42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -1952,8 +2202,14 @@
       <c r="K43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M43" s="5">
+        <v>1</v>
+      </c>
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1983,8 +2239,14 @@
       <c r="K44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -2009,10 +2271,14 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I46">
         <f>SUM(I2:I45)</f>
         <v>41</v>
+      </c>
+      <c r="M46">
+        <f>SUM(M2:M45)</f>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
